--- a/data/Dec 2023 MHDR/perinatal deaths national_monthly.xlsx
+++ b/data/Dec 2023 MHDR/perinatal deaths national_monthly.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PIMPA.SAWULU\Documents\E4H-Zambia\data\Aug 2023 MHDR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PIMPA.SAWULU\Documents\E4H-Zambia\data\Dec 2023 MHDR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C697F43-AFAE-42E2-B6CB-C28A4D1DD7D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F18A997E-5A54-4868-9680-363A14053110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{CC76455B-1602-4ED3-87EB-8B1D3D6CF332}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="62">
   <si>
     <t>Province</t>
   </si>
@@ -145,33 +145,6 @@
   </si>
   <si>
     <t>March 2023</t>
-  </si>
-  <si>
-    <t>April 2019</t>
-  </si>
-  <si>
-    <t>May 2019</t>
-  </si>
-  <si>
-    <t>June 2019</t>
-  </si>
-  <si>
-    <t>July 2019</t>
-  </si>
-  <si>
-    <t>August 2019</t>
-  </si>
-  <si>
-    <t>September 2019</t>
-  </si>
-  <si>
-    <t>October 2019</t>
-  </si>
-  <si>
-    <t>November 2019</t>
-  </si>
-  <si>
-    <t>December 2019</t>
   </si>
   <si>
     <t>April 2020</t>
@@ -287,18 +260,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -313,7 +280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -321,10 +288,7 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -639,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{284376F4-204C-4DDE-A490-B666F6F9D3DD}">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:XFD48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.5"/>
@@ -658,51 +622,51 @@
         <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A2" s="5" t="s">
-        <v>24</v>
+      <c r="A2" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="B2">
-        <v>403</v>
+        <v>18.900915903413821</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A3" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3">
-        <v>312</v>
+        <v>18.760214533987064</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A4" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4">
-        <v>324</v>
+        <v>15.896434211619983</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B5">
-        <v>343</v>
+        <v>19.947943335040108</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.5">
@@ -710,10 +674,10 @@
         <v>37</v>
       </c>
       <c r="B6">
-        <v>324</v>
+        <v>14.818621782517452</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.5">
@@ -721,21 +685,21 @@
         <v>38</v>
       </c>
       <c r="B7">
-        <v>314</v>
+        <v>14.737669483199058</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B8">
-        <v>401</v>
+        <v>19.731699588042677</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.5">
@@ -743,10 +707,10 @@
         <v>40</v>
       </c>
       <c r="B9">
-        <v>379</v>
+        <v>16.126485334175516</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.5">
@@ -754,21 +718,21 @@
         <v>41</v>
       </c>
       <c r="B10">
-        <v>376</v>
+        <v>18.464965414826683</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B11">
-        <v>510</v>
+        <v>15.33255347593583</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.5">
@@ -776,10 +740,10 @@
         <v>43</v>
       </c>
       <c r="B12">
-        <v>402</v>
+        <v>15.837466005439129</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.5">
@@ -787,43 +751,43 @@
         <v>44</v>
       </c>
       <c r="B13">
-        <v>366</v>
+        <v>17.678916025148879</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A14" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14">
-        <v>908</v>
+        <v>15.421214081509151</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A15" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15">
-        <v>815</v>
+        <v>19.67342120794806</v>
       </c>
       <c r="C15" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A16" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B16">
-        <v>765</v>
+        <v>18.713086726764065</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.5">
@@ -831,10 +795,10 @@
         <v>45</v>
       </c>
       <c r="B17">
-        <v>935</v>
+        <v>13.690132409249395</v>
       </c>
       <c r="C17" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.5">
@@ -842,10 +806,10 @@
         <v>46</v>
       </c>
       <c r="B18">
-        <v>692</v>
+        <v>12.397718819737168</v>
       </c>
       <c r="C18" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.5">
@@ -853,10 +817,10 @@
         <v>47</v>
       </c>
       <c r="B19">
-        <v>675</v>
+        <v>15.657061290034795</v>
       </c>
       <c r="C19" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.5">
@@ -864,10 +828,10 @@
         <v>48</v>
       </c>
       <c r="B20">
-        <v>934</v>
+        <v>13.378920767058124</v>
       </c>
       <c r="C20" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.5">
@@ -875,10 +839,10 @@
         <v>49</v>
       </c>
       <c r="B21">
-        <v>817</v>
+        <v>13.065659319261623</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.5">
@@ -886,10 +850,10 @@
         <v>50</v>
       </c>
       <c r="B22">
-        <v>945</v>
+        <v>15.871177015755327</v>
       </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.5">
@@ -897,10 +861,10 @@
         <v>51</v>
       </c>
       <c r="B23">
-        <v>734</v>
+        <v>12.981059737878441</v>
       </c>
       <c r="C23" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.5">
@@ -908,10 +872,10 @@
         <v>52</v>
       </c>
       <c r="B24">
-        <v>693</v>
+        <v>15.501213045065162</v>
       </c>
       <c r="C24" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.5">
@@ -919,340 +883,208 @@
         <v>53</v>
       </c>
       <c r="B25">
-        <v>852</v>
+        <v>15.854530595566452</v>
       </c>
       <c r="C25" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A26" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B26">
-        <v>739</v>
+        <v>11.956477609516464</v>
       </c>
       <c r="C26" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A27" s="3" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B27">
-        <v>800</v>
+        <v>12.776850814838518</v>
       </c>
       <c r="C27" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A28" s="3" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B28">
-        <v>903</v>
+        <v>15.442218602584985</v>
       </c>
       <c r="C28" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A29" s="3" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="B29">
-        <v>640</v>
+        <v>12.149593215218284</v>
       </c>
       <c r="C29" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A30" s="3" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="B30">
-        <v>600</v>
+        <v>10.94729230274787</v>
       </c>
       <c r="C30" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A31" s="3" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="B31">
-        <v>702</v>
+        <v>14.620589656839053</v>
       </c>
       <c r="C31" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A32" s="3" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="B32">
-        <v>630</v>
+        <v>14.390896921017402</v>
       </c>
       <c r="C32" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A33" s="3" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="B33">
-        <v>671</v>
+        <v>14.596160116615838</v>
       </c>
       <c r="C33" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A34" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B34">
-        <v>822</v>
+        <v>11.023139006575542</v>
       </c>
       <c r="C34" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A35" s="3" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="B35">
-        <v>623</v>
+        <v>9.0858703828338427</v>
       </c>
       <c r="C35" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A36" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B36">
-        <v>722</v>
+        <v>13.845133477035318</v>
       </c>
       <c r="C36" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A37" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B37">
-        <v>776</v>
+        <v>17.15148756568875</v>
       </c>
       <c r="C37" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A38" s="3" t="s">
-        <v>14</v>
+      <c r="A38" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="B38">
-        <v>589</v>
+        <v>13.682548678298183</v>
       </c>
       <c r="C38" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A39" s="3" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B39">
-        <v>559</v>
+        <v>20.222469165685617</v>
       </c>
       <c r="C39" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A40" s="3" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B40">
-        <v>730</v>
+        <v>12.636479521143935</v>
       </c>
       <c r="C40" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A41" s="3" t="s">
-        <v>17</v>
+      <c r="A41" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="B41">
-        <v>563</v>
+        <v>13.773325793682849</v>
       </c>
       <c r="C41" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A42" s="3" t="s">
-        <v>18</v>
+      <c r="A42" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="B42">
-        <v>545</v>
+        <v>14.529019242706394</v>
       </c>
       <c r="C42" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A43" s="3" t="s">
-        <v>19</v>
+      <c r="A43" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="B43">
-        <v>726</v>
+        <v>11.788390096091982</v>
       </c>
       <c r="C43" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A44" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B44">
-        <v>731</v>
-      </c>
-      <c r="C44" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A45" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B45">
-        <v>761</v>
-      </c>
-      <c r="C45" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A46" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B46">
-        <v>575</v>
-      </c>
-      <c r="C46" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A47" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B47">
-        <v>459</v>
-      </c>
-      <c r="C47" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A48" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B48">
-        <v>668</v>
-      </c>
-      <c r="C48" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A49" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B49">
-        <v>829</v>
-      </c>
-      <c r="C49" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A50" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B50">
-        <v>676</v>
-      </c>
-      <c r="C50" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A51" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B51">
-        <v>919</v>
-      </c>
-      <c r="C51" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A52" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B52">
-        <v>684</v>
-      </c>
-      <c r="C52" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A53" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B53">
-        <v>682</v>
-      </c>
-      <c r="C53" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A54" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B54">
-        <v>749</v>
-      </c>
-      <c r="C54" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A55" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B55">
-        <v>568</v>
-      </c>
-      <c r="C55" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/data/Dec 2023 MHDR/perinatal deaths national_monthly.xlsx
+++ b/data/Dec 2023 MHDR/perinatal deaths national_monthly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PIMPA.SAWULU\Documents\E4H-Zambia\data\Dec 2023 MHDR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F18A997E-5A54-4868-9680-363A14053110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19641A8C-D3DD-46DE-B865-653E1B5A30A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{CC76455B-1602-4ED3-87EB-8B1D3D6CF332}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="61">
   <si>
     <t>Province</t>
   </si>
@@ -162,18 +162,12 @@
     <t>August 2020</t>
   </si>
   <si>
-    <t>September2020</t>
-  </si>
-  <si>
     <t>October 2020</t>
   </si>
   <si>
     <t>November 2020</t>
   </si>
   <si>
-    <t>December2020</t>
-  </si>
-  <si>
     <t>April 2021</t>
   </si>
   <si>
@@ -189,27 +183,15 @@
     <t>August 2021</t>
   </si>
   <si>
-    <t>September2021</t>
-  </si>
-  <si>
     <t>October 2021</t>
   </si>
   <si>
     <t>November 2021</t>
   </si>
   <si>
-    <t>December2021</t>
-  </si>
-  <si>
-    <t>September2022</t>
-  </si>
-  <si>
     <t>November 2022</t>
   </si>
   <si>
-    <t>December2022</t>
-  </si>
-  <si>
     <t>Zambia Ministry of Health</t>
   </si>
   <si>
@@ -223,6 +205,21 @@
   </si>
   <si>
     <t>June 2023</t>
+  </si>
+  <si>
+    <t>September 2020</t>
+  </si>
+  <si>
+    <t>December 2020</t>
+  </si>
+  <si>
+    <t>September 2021</t>
+  </si>
+  <si>
+    <t>December 2021</t>
+  </si>
+  <si>
+    <t>December 2022</t>
   </si>
 </sst>
 </file>
@@ -280,7 +277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -288,7 +285,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -605,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{284376F4-204C-4DDE-A490-B666F6F9D3DD}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:XFD48"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.5"/>
@@ -622,7 +618,7 @@
         <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.5">
@@ -633,7 +629,7 @@
         <v>18.900915903413821</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.5">
@@ -644,7 +640,7 @@
         <v>18.760214533987064</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.5">
@@ -655,7 +651,7 @@
         <v>15.896434211619983</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.5">
@@ -666,7 +662,7 @@
         <v>19.947943335040108</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.5">
@@ -677,7 +673,7 @@
         <v>14.818621782517452</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.5">
@@ -688,7 +684,7 @@
         <v>14.737669483199058</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.5">
@@ -699,7 +695,7 @@
         <v>19.731699588042677</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.5">
@@ -710,51 +706,51 @@
         <v>16.126485334175516</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A10" s="3" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="B10">
         <v>18.464965414826683</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A11" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11">
         <v>15.33255347593583</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A12" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12">
         <v>15.837466005439129</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A13" s="3" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="B13">
         <v>17.678916025148879</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.5">
@@ -765,7 +761,7 @@
         <v>15.421214081509151</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.5">
@@ -776,7 +772,7 @@
         <v>19.67342120794806</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.5">
@@ -787,106 +783,106 @@
         <v>18.713086726764065</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A17" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B17">
         <v>13.690132409249395</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A18" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B18">
         <v>12.397718819737168</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A19" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B19">
         <v>15.657061290034795</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A20" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B20">
         <v>13.378920767058124</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A21" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B21">
         <v>13.065659319261623</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A22" s="3" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B22">
         <v>15.871177015755327</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A23" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B23">
         <v>12.981059737878441</v>
       </c>
       <c r="C23" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A24" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B24">
         <v>15.501213045065162</v>
       </c>
       <c r="C24" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A25" s="3" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B25">
         <v>15.854530595566452</v>
       </c>
       <c r="C25" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.5">
@@ -897,7 +893,7 @@
         <v>11.956477609516464</v>
       </c>
       <c r="C26" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.5">
@@ -908,7 +904,7 @@
         <v>12.776850814838518</v>
       </c>
       <c r="C27" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.5">
@@ -919,7 +915,7 @@
         <v>15.442218602584985</v>
       </c>
       <c r="C28" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.5">
@@ -930,7 +926,7 @@
         <v>12.149593215218284</v>
       </c>
       <c r="C29" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.5">
@@ -941,7 +937,7 @@
         <v>10.94729230274787</v>
       </c>
       <c r="C30" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.5">
@@ -952,7 +948,7 @@
         <v>14.620589656839053</v>
       </c>
       <c r="C31" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.5">
@@ -963,7 +959,7 @@
         <v>14.390896921017402</v>
       </c>
       <c r="C32" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.5">
@@ -974,18 +970,18 @@
         <v>14.596160116615838</v>
       </c>
       <c r="C33" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A34" s="3" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="B34">
         <v>11.023139006575542</v>
       </c>
       <c r="C34" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.5">
@@ -996,29 +992,29 @@
         <v>9.0858703828338427</v>
       </c>
       <c r="C35" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A36" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B36">
         <v>13.845133477035318</v>
       </c>
       <c r="C36" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A37" s="3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B37">
         <v>17.15148756568875</v>
       </c>
       <c r="C37" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.5">
@@ -1029,7 +1025,7 @@
         <v>13.682548678298183</v>
       </c>
       <c r="C38" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.5">
@@ -1040,7 +1036,7 @@
         <v>20.222469165685617</v>
       </c>
       <c r="C39" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.5">
@@ -1051,40 +1047,40 @@
         <v>12.636479521143935</v>
       </c>
       <c r="C40" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A41" s="5" t="s">
-        <v>59</v>
+      <c r="A41" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="B41">
         <v>13.773325793682849</v>
       </c>
       <c r="C41" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A42" s="5" t="s">
-        <v>60</v>
+      <c r="A42" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="B42">
         <v>14.529019242706394</v>
       </c>
       <c r="C42" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A43" s="5" t="s">
-        <v>61</v>
+      <c r="A43" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="B43">
         <v>11.788390096091982</v>
       </c>
       <c r="C43" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/data/Dec 2023 MHDR/perinatal deaths national_monthly.xlsx
+++ b/data/Dec 2023 MHDR/perinatal deaths national_monthly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PIMPA.SAWULU\Documents\E4H-Zambia\data\Dec 2023 MHDR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19641A8C-D3DD-46DE-B865-653E1B5A30A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F055DE7F-9A2E-48ED-8EEB-9A71449428D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{CC76455B-1602-4ED3-87EB-8B1D3D6CF332}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="62">
   <si>
     <t>Province</t>
   </si>
@@ -220,6 +220,9 @@
   </si>
   <si>
     <t>December 2022</t>
+  </si>
+  <si>
+    <t>mortality rates</t>
   </si>
 </sst>
 </file>
@@ -601,8 +604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{284376F4-204C-4DDE-A490-B666F6F9D3DD}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.5"/>
@@ -615,7 +618,7 @@
         <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="C1" t="s">
         <v>52</v>

--- a/data/Dec 2023 MHDR/perinatal deaths national_monthly.xlsx
+++ b/data/Dec 2023 MHDR/perinatal deaths national_monthly.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PIMPA.SAWULU\Documents\E4H-Zambia\data\Dec 2023 MHDR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F055DE7F-9A2E-48ED-8EEB-9A71449428D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF15E57E-E999-4CE5-B4F8-DBA2C0A5D734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{CC76455B-1602-4ED3-87EB-8B1D3D6CF332}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CC76455B-1602-4ED3-87EB-8B1D3D6CF332}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="68">
   <si>
     <t>Province</t>
   </si>
@@ -223,6 +223,24 @@
   </si>
   <si>
     <t>mortality rates</t>
+  </si>
+  <si>
+    <t>July 2023</t>
+  </si>
+  <si>
+    <t>August 2023</t>
+  </si>
+  <si>
+    <t>September 2023</t>
+  </si>
+  <si>
+    <t>October 2023</t>
+  </si>
+  <si>
+    <t>November 2023</t>
+  </si>
+  <si>
+    <t>December 2023</t>
   </si>
 </sst>
 </file>
@@ -602,15 +620,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{284376F4-204C-4DDE-A490-B666F6F9D3DD}">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.5">
@@ -1025,7 +1045,7 @@
         <v>27</v>
       </c>
       <c r="B38">
-        <v>13.682548678298183</v>
+        <v>13.348340343186621</v>
       </c>
       <c r="C38" t="s">
         <v>51</v>
@@ -1036,7 +1056,7 @@
         <v>31</v>
       </c>
       <c r="B39">
-        <v>20.222469165685617</v>
+        <v>19.916994462685434</v>
       </c>
       <c r="C39" t="s">
         <v>51</v>
@@ -1047,7 +1067,7 @@
         <v>35</v>
       </c>
       <c r="B40">
-        <v>12.636479521143935</v>
+        <v>12.868995879663601</v>
       </c>
       <c r="C40" t="s">
         <v>51</v>
@@ -1058,7 +1078,7 @@
         <v>53</v>
       </c>
       <c r="B41">
-        <v>13.773325793682849</v>
+        <v>13.483590351917753</v>
       </c>
       <c r="C41" t="s">
         <v>51</v>
@@ -1069,7 +1089,7 @@
         <v>54</v>
       </c>
       <c r="B42">
-        <v>14.529019242706394</v>
+        <v>14.18641210674849</v>
       </c>
       <c r="C42" t="s">
         <v>51</v>
@@ -1080,9 +1100,75 @@
         <v>55</v>
       </c>
       <c r="B43">
-        <v>11.788390096091982</v>
+        <v>11.345024567570807</v>
       </c>
       <c r="C43" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A44" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B44">
+        <v>13.970393366902663</v>
+      </c>
+      <c r="C44" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A45" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45">
+        <v>13.688521565878316</v>
+      </c>
+      <c r="C45" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A46" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46">
+        <v>12.916082367702414</v>
+      </c>
+      <c r="C46" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A47" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47">
+        <v>13.902528257562627</v>
+      </c>
+      <c r="C47" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A48" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48">
+        <v>15.905731476276726</v>
+      </c>
+      <c r="C48" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A49" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B49">
+        <v>19.858331528967799</v>
+      </c>
+      <c r="C49" t="s">
         <v>51</v>
       </c>
     </row>

--- a/data/Dec 2023 MHDR/perinatal deaths national_monthly.xlsx
+++ b/data/Dec 2023 MHDR/perinatal deaths national_monthly.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PIMPA.SAWULU\Documents\E4H-Zambia\data\Dec 2023 MHDR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF15E57E-E999-4CE5-B4F8-DBA2C0A5D734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A77B4E-7CD1-4C9B-B6EB-C2EAC6445D1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CC76455B-1602-4ED3-87EB-8B1D3D6CF332}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{CC76455B-1602-4ED3-87EB-8B1D3D6CF332}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -324,9 +324,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -364,7 +364,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -470,7 +470,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -612,7 +612,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -622,8 +622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{284376F4-204C-4DDE-A490-B666F6F9D3DD}">
   <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.5"/>
@@ -1045,7 +1045,7 @@
         <v>27</v>
       </c>
       <c r="B38">
-        <v>13.348340343186621</v>
+        <v>13.29557076547872</v>
       </c>
       <c r="C38" t="s">
         <v>51</v>
@@ -1056,7 +1056,7 @@
         <v>31</v>
       </c>
       <c r="B39">
-        <v>19.916994462685434</v>
+        <v>19.823337180081751</v>
       </c>
       <c r="C39" t="s">
         <v>51</v>
@@ -1067,7 +1067,7 @@
         <v>35</v>
       </c>
       <c r="B40">
-        <v>12.868995879663601</v>
+        <v>12.854726555158805</v>
       </c>
       <c r="C40" t="s">
         <v>51</v>
@@ -1078,7 +1078,7 @@
         <v>53</v>
       </c>
       <c r="B41">
-        <v>13.483590351917753</v>
+        <v>13.394084606622412</v>
       </c>
       <c r="C41" t="s">
         <v>51</v>
@@ -1089,7 +1089,7 @@
         <v>54</v>
       </c>
       <c r="B42">
-        <v>14.18641210674849</v>
+        <v>14.153439153439153</v>
       </c>
       <c r="C42" t="s">
         <v>51</v>
@@ -1100,7 +1100,7 @@
         <v>55</v>
       </c>
       <c r="B43">
-        <v>11.345024567570807</v>
+        <v>11.288431345270983</v>
       </c>
       <c r="C43" t="s">
         <v>51</v>
@@ -1111,7 +1111,7 @@
         <v>62</v>
       </c>
       <c r="B44">
-        <v>13.970393366902663</v>
+        <v>13.881312893821123</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -1122,7 +1122,7 @@
         <v>63</v>
       </c>
       <c r="B45">
-        <v>13.688521565878316</v>
+        <v>13.588250375416621</v>
       </c>
       <c r="C45" t="s">
         <v>51</v>
@@ -1133,7 +1133,7 @@
         <v>64</v>
       </c>
       <c r="B46">
-        <v>12.916082367702414</v>
+        <v>12.781186094069529</v>
       </c>
       <c r="C46" t="s">
         <v>51</v>
@@ -1144,7 +1144,7 @@
         <v>65</v>
       </c>
       <c r="B47">
-        <v>13.902528257562627</v>
+        <v>13.748714628480023</v>
       </c>
       <c r="C47" t="s">
         <v>51</v>
@@ -1155,7 +1155,7 @@
         <v>66</v>
       </c>
       <c r="B48">
-        <v>15.905731476276726</v>
+        <v>15.58611122444816</v>
       </c>
       <c r="C48" t="s">
         <v>51</v>
@@ -1166,7 +1166,7 @@
         <v>67</v>
       </c>
       <c r="B49">
-        <v>19.858331528967799</v>
+        <v>13.076688053773296</v>
       </c>
       <c r="C49" t="s">
         <v>51</v>
